--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spon2-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spon2-Itgam.xlsx
@@ -537,22 +537,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H2">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I2">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J2">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N2">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O2">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P2">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q2">
-        <v>59.43091000129</v>
+        <v>236.36943573543</v>
       </c>
       <c r="R2">
-        <v>356.58546000774</v>
+        <v>1418.21661441258</v>
       </c>
       <c r="S2">
-        <v>0.07566548632734849</v>
+        <v>0.1449457197852586</v>
       </c>
       <c r="T2">
-        <v>0.05662333378881586</v>
+        <v>0.1149933920557576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H3">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I3">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J3">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N3">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O3">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P3">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q3">
-        <v>0.01932818664</v>
+        <v>0.4222880186075</v>
       </c>
       <c r="R3">
-        <v>0.07731274655999999</v>
+        <v>1.68915207443</v>
       </c>
       <c r="S3">
-        <v>2.460801360621292E-05</v>
+        <v>0.0002589541267182541</v>
       </c>
       <c r="T3">
-        <v>1.227673572136672E-05</v>
+        <v>0.0001369616776187461</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H4">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I4">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J4">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N4">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O4">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P4">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q4">
-        <v>0.06085762615</v>
+        <v>203.0061227152925</v>
       </c>
       <c r="R4">
-        <v>0.3651457569</v>
+        <v>1218.036736291755</v>
       </c>
       <c r="S4">
-        <v>7.748193455674427E-05</v>
+        <v>0.1244867742152504</v>
       </c>
       <c r="T4">
-        <v>5.798265042570643E-05</v>
+        <v>0.09876218804045543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H5">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I5">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J5">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N5">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O5">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P5">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q5">
-        <v>41.748078904497</v>
+        <v>160.95817793872</v>
       </c>
       <c r="R5">
-        <v>250.488473426982</v>
+        <v>965.74906763232</v>
       </c>
       <c r="S5">
-        <v>0.05315228546008663</v>
+        <v>0.09870226615409432</v>
       </c>
       <c r="T5">
-        <v>0.03977585749233597</v>
+        <v>0.07830592311014792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>4.739138</v>
       </c>
       <c r="I6">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J6">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N6">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O6">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P6">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q6">
-        <v>198.5684551928911</v>
+        <v>286.806698359224</v>
       </c>
       <c r="R6">
-        <v>1787.11609673602</v>
+        <v>2581.260285233016</v>
       </c>
       <c r="S6">
-        <v>0.2528108476063094</v>
+        <v>0.1758746988736836</v>
       </c>
       <c r="T6">
-        <v>0.2837818212292025</v>
+        <v>0.2092965721605948</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>4.739138</v>
       </c>
       <c r="I7">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J7">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N7">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O7">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P7">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q7">
-        <v>0.06457865381333333</v>
+        <v>0.5123971802726667</v>
       </c>
       <c r="R7">
-        <v>0.38747192288</v>
+        <v>3.074383081636</v>
       </c>
       <c r="S7">
-        <v>8.221942499358131E-05</v>
+        <v>0.000314210582597021</v>
       </c>
       <c r="T7">
-        <v>6.152789298406147E-05</v>
+        <v>0.0002492804945615372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>4.739138</v>
       </c>
       <c r="I8">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J8">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N8">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O8">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P8">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q8">
-        <v>0.2033353487444444</v>
+        <v>246.3242154025807</v>
       </c>
       <c r="R8">
-        <v>1.8300181387</v>
+        <v>2216.917938623226</v>
       </c>
       <c r="S8">
-        <v>0.0002588799002060618</v>
+        <v>0.1510501583717003</v>
       </c>
       <c r="T8">
-        <v>0.0002905943722577707</v>
+        <v>0.1797545671661265</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4.739138</v>
       </c>
       <c r="I9">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J9">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N9">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O9">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P9">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q9">
-        <v>139.487205145554</v>
+        <v>195.3039463198294</v>
       </c>
       <c r="R9">
-        <v>1255.384846309986</v>
+        <v>1757.735516878464</v>
       </c>
       <c r="S9">
-        <v>0.1775905368696505</v>
+        <v>0.1197636699015309</v>
       </c>
       <c r="T9">
-        <v>0.1993465330428467</v>
+        <v>0.1425226353778514</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H10">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I10">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J10">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N10">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O10">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P10">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q10">
-        <v>19.76459076227556</v>
+        <v>12.205239540396</v>
       </c>
       <c r="R10">
-        <v>177.88131686048</v>
+        <v>109.847155863564</v>
       </c>
       <c r="S10">
-        <v>0.02516362902833119</v>
+        <v>0.007484458491132332</v>
       </c>
       <c r="T10">
-        <v>0.02824633729924505</v>
+        <v>0.008906747341738576</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H11">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I11">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J11">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N11">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O11">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P11">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q11">
-        <v>0.006427862186666667</v>
+        <v>0.02180538446566667</v>
       </c>
       <c r="R11">
-        <v>0.03856717312</v>
+        <v>0.130832306794</v>
       </c>
       <c r="S11">
-        <v>8.183743415484469E-06</v>
+        <v>1.337142907980722E-05</v>
       </c>
       <c r="T11">
-        <v>6.124203484958153E-06</v>
+        <v>1.060828832198749E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H12">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I12">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J12">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N12">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O12">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P12">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q12">
-        <v>0.02023906542222222</v>
+        <v>10.48248200194767</v>
       </c>
       <c r="R12">
-        <v>0.1821515888</v>
+        <v>94.342338017529</v>
       </c>
       <c r="S12">
-        <v>2.576771461096973E-05</v>
+        <v>0.006428034547618028</v>
       </c>
       <c r="T12">
-        <v>2.892442729594655E-05</v>
+        <v>0.007649568727976038</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H13">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I13">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J13">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N13">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O13">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P13">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q13">
-        <v>13.883914862496</v>
+        <v>8.311282343317334</v>
       </c>
       <c r="R13">
-        <v>124.955233762464</v>
+        <v>74.801541089856</v>
       </c>
       <c r="S13">
-        <v>0.01767654525524612</v>
+        <v>0.005096618341717641</v>
       </c>
       <c r="T13">
-        <v>0.01984203705287909</v>
+        <v>0.006065140440117789</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H14">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I14">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J14">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N14">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O14">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P14">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q14">
-        <v>91.42365553624502</v>
+        <v>70.626831365952</v>
       </c>
       <c r="R14">
-        <v>548.5419332174702</v>
+        <v>423.760988195712</v>
       </c>
       <c r="S14">
-        <v>0.1163976011443172</v>
+        <v>0.04330956274714131</v>
       </c>
       <c r="T14">
-        <v>0.08710470971267578</v>
+        <v>0.03435985233730213</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H15">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I15">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J15">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N15">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O15">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P15">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q15">
-        <v>0.02973290292</v>
+        <v>0.126179023888</v>
       </c>
       <c r="R15">
-        <v>0.11893161168</v>
+        <v>0.504716095552</v>
       </c>
       <c r="S15">
-        <v>3.785495728261283E-05</v>
+        <v>7.737510301339736E-05</v>
       </c>
       <c r="T15">
-        <v>1.888552703762037E-05</v>
+        <v>4.09239429737621E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H16">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I16">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J16">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N16">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O16">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P16">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q16">
-        <v>0.09361839907500001</v>
+        <v>60.65792368907201</v>
       </c>
       <c r="R16">
-        <v>0.56171039445</v>
+        <v>363.947542134432</v>
       </c>
       <c r="S16">
-        <v>0.0001191918766689575</v>
+        <v>0.03719646062713836</v>
       </c>
       <c r="T16">
-        <v>8.919577135001353E-05</v>
+        <v>0.02950999302580367</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H17">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I17">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J17">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N17">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O17">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P17">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q17">
-        <v>64.2218331333285</v>
+        <v>48.09406112460801</v>
       </c>
       <c r="R17">
-        <v>385.330998799971</v>
+        <v>288.564366747648</v>
       </c>
       <c r="S17">
-        <v>0.081765132601228</v>
+        <v>0.02949208845641639</v>
       </c>
       <c r="T17">
-        <v>0.06118792887336171</v>
+        <v>0.02339769187690556</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H18">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I18">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J18">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N18">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O18">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P18">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q18">
-        <v>60.79118372571778</v>
+        <v>25.934522711676</v>
       </c>
       <c r="R18">
-        <v>547.1206535314601</v>
+        <v>233.410704405084</v>
       </c>
       <c r="S18">
-        <v>0.07739734224028853</v>
+        <v>0.01590348621019936</v>
       </c>
       <c r="T18">
-        <v>0.08687902021297923</v>
+        <v>0.01892566224996715</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H19">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I19">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J19">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.5</v>
       </c>
       <c r="M19">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N19">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O19">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P19">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q19">
-        <v>0.01977057637333333</v>
+        <v>0.04633356328566667</v>
       </c>
       <c r="R19">
-        <v>0.11862345824</v>
+        <v>0.278001379714</v>
       </c>
       <c r="S19">
-        <v>2.517124971210741E-05</v>
+        <v>2.84125215248806E-05</v>
       </c>
       <c r="T19">
-        <v>1.883659437757609E-05</v>
+        <v>2.254121219890991E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H20">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I20">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J20">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N20">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O20">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P20">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q20">
-        <v>0.06225055501111111</v>
+        <v>22.27389037752767</v>
       </c>
       <c r="R20">
-        <v>0.5602549951</v>
+        <v>200.465013397749</v>
       </c>
       <c r="S20">
-        <v>7.925536591919665E-05</v>
+        <v>0.01365872479723809</v>
       </c>
       <c r="T20">
-        <v>8.896466388088317E-05</v>
+        <v>0.01625432366596423</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H21">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I21">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J21">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N21">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O21">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P21">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q21">
-        <v>42.70362232084199</v>
+        <v>17.66037774043734</v>
       </c>
       <c r="R21">
-        <v>384.332600887578</v>
+        <v>158.943399663936</v>
       </c>
       <c r="S21">
-        <v>0.05436885201279584</v>
+        <v>0.01082964113064282</v>
       </c>
       <c r="T21">
-        <v>0.06102939010892006</v>
+        <v>0.01288762272736483</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H22">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I22">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J22">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N22">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O22">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P22">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q22">
-        <v>31.01231353080445</v>
+        <v>9.679065961379999</v>
       </c>
       <c r="R22">
-        <v>279.1108217772401</v>
+        <v>87.11159365242</v>
       </c>
       <c r="S22">
-        <v>0.03948386093017243</v>
+        <v>0.005935366297491779</v>
       </c>
       <c r="T22">
-        <v>0.04432089077670277</v>
+        <v>0.007063277597846851</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H23">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I23">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J23">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,28 +1863,28 @@
         <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N23">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O23">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P23">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q23">
-        <v>0.01008585909333333</v>
+        <v>0.01729222551166667</v>
       </c>
       <c r="R23">
-        <v>0.06051515456</v>
+        <v>0.10375335307</v>
       </c>
       <c r="S23">
-        <v>1.284098515923131E-05</v>
+        <v>1.060388398220405E-05</v>
       </c>
       <c r="T23">
-        <v>9.609392923251233E-06</v>
+        <v>8.412642952726733E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H24">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I24">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J24">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N24">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O24">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P24">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q24">
-        <v>0.03175680437777778</v>
+        <v>8.312875335221667</v>
       </c>
       <c r="R24">
-        <v>0.2858112394</v>
+        <v>74.815878016995</v>
       </c>
       <c r="S24">
-        <v>4.043172227036181E-05</v>
+        <v>0.005097595191188332</v>
       </c>
       <c r="T24">
-        <v>4.538487129786526E-05</v>
+        <v>0.006066302922538751</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H25">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I25">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J25">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N25">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O25">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P25">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q25">
-        <v>21.785035973148</v>
+        <v>6.591058680853334</v>
       </c>
       <c r="R25">
-        <v>196.065323758332</v>
+        <v>59.31952812768</v>
       </c>
       <c r="S25">
-        <v>0.02773599363582428</v>
+        <v>0.004041748213641669</v>
       </c>
       <c r="T25">
-        <v>0.03113383330699829</v>
+        <v>0.004809810916912878</v>
       </c>
     </row>
   </sheetData>
